--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/47.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/47.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1234816359953047</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.574483342801311</v>
+        <v>-1.557311581197481</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006734554950645218</v>
+        <v>0.006682612319642295</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1678698121561188</v>
+        <v>-0.1451913446564185</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1117792598846227</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.590059049016142</v>
+        <v>-1.56620400222327</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0140065232910544</v>
+        <v>0.01609839470326301</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1347461537674671</v>
+        <v>-0.1079453301890803</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1091320318894006</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.654031121153605</v>
+        <v>-1.637762846525402</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04248659699154859</v>
+        <v>-0.04338850994805388</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1432222467356713</v>
+        <v>-0.1150252681966908</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1150035395271439</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.782877178385037</v>
+        <v>-1.77552336105032</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07909828175300258</v>
+        <v>-0.09256558935485128</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1522272101286326</v>
+        <v>-0.1206870149760094</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1224109297744899</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.797659578962733</v>
+        <v>-1.819895747089347</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0935635174777559</v>
+        <v>-0.1181449740951088</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1484495642375109</v>
+        <v>-0.118596717582922</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1260750270421371</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.62151975620314</v>
+        <v>-1.643255386249181</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.06677056399497561</v>
+        <v>-0.1161916163655746</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1384262104730681</v>
+        <v>-0.1145876908809692</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1231481612684354</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.329375511213247</v>
+        <v>-1.326318766079681</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.07440613075240524</v>
+        <v>-0.1297297548278818</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1073487769421073</v>
+        <v>-0.07356717856075197</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1126364565910403</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8628559188987392</v>
+        <v>-0.8266393129367318</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002638957197020829</v>
+        <v>-0.06490849937447689</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1013486160517091</v>
+        <v>-0.07858672553857986</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09407126388936574</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3622658956941176</v>
+        <v>-0.2967929963244942</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01709474880704635</v>
+        <v>-0.06415139617713125</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04069851126975101</v>
+        <v>-0.007554390632522425</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.06534383895547646</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1786032768245886</v>
+        <v>0.2696650050491973</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01859298673020415</v>
+        <v>-0.09573723788427216</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03148443161397723</v>
+        <v>0.06743030628712104</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.02445177866933042</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8010522863811882</v>
+        <v>0.9180097771894358</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06134649410297343</v>
+        <v>-0.1619515002600282</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1125653045904183</v>
+        <v>0.1389694753502373</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.02959845331362692</v>
       </c>
       <c r="E13" t="n">
-        <v>1.440502276466957</v>
+        <v>1.590471670306243</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2068094711979765</v>
+        <v>-0.318882780672828</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2134410420363367</v>
+        <v>0.2420094890879442</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.09719822161867762</v>
       </c>
       <c r="E14" t="n">
-        <v>2.088500764400509</v>
+        <v>2.250464183944107</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4403309480341465</v>
+        <v>-0.5580770224221658</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3232099875176041</v>
+        <v>0.3513046548137001</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1767423338812522</v>
       </c>
       <c r="E15" t="n">
-        <v>2.768713127670601</v>
+        <v>2.948104086925241</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7275548092508535</v>
+        <v>-0.851361644265441</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4571054980901684</v>
+        <v>0.4918157677530912</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2647738944475435</v>
       </c>
       <c r="E16" t="n">
-        <v>3.43377083484081</v>
+        <v>3.623174129726043</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9639150295722893</v>
+        <v>-1.08707258169934</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6157870877658547</v>
+        <v>0.6532408727572045</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3550751280013856</v>
       </c>
       <c r="E17" t="n">
-        <v>4.07553463303489</v>
+        <v>4.281480868884994</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.229232479668294</v>
+        <v>-1.370926467977343</v>
       </c>
       <c r="G17" t="n">
-        <v>0.785859853822394</v>
+        <v>0.8247947908068878</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4440528186299504</v>
       </c>
       <c r="E18" t="n">
-        <v>4.702785974930578</v>
+        <v>4.935495257900158</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.449131608019167</v>
+        <v>-1.585788735140053</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9409873083221832</v>
+        <v>0.9832261114422872</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5295685219778402</v>
       </c>
       <c r="E19" t="n">
-        <v>5.189960633164355</v>
+        <v>5.420568600606997</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.661896494702745</v>
+        <v>-1.808710767213385</v>
       </c>
       <c r="G19" t="n">
-        <v>1.108330725222387</v>
+        <v>1.149026989603616</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.609057429463098</v>
       </c>
       <c r="E20" t="n">
-        <v>5.594444196860599</v>
+        <v>5.842870060756365</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.818088773138094</v>
+        <v>-1.95934439712186</v>
       </c>
       <c r="G20" t="n">
-        <v>1.236279591554678</v>
+        <v>1.27642337522433</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6818526599318594</v>
       </c>
       <c r="E21" t="n">
-        <v>5.902600938371483</v>
+        <v>6.138549552692699</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.026432240109938</v>
+        <v>-2.161542893444147</v>
       </c>
       <c r="G21" t="n">
-        <v>1.358086635275652</v>
+        <v>1.393254944502874</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7466735519207317</v>
       </c>
       <c r="E22" t="n">
-        <v>6.223058639315333</v>
+        <v>6.464494284293403</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.146683365929507</v>
+        <v>-2.264810352944882</v>
       </c>
       <c r="G22" t="n">
-        <v>1.459083572193911</v>
+        <v>1.490382942420975</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8029899268457374</v>
       </c>
       <c r="E23" t="n">
-        <v>6.357387005146255</v>
+        <v>6.587954048091744</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.248953684316898</v>
+        <v>-2.355554916316548</v>
       </c>
       <c r="G23" t="n">
-        <v>1.564132034330398</v>
+        <v>1.592390399615109</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8505263851796832</v>
       </c>
       <c r="E24" t="n">
-        <v>6.507908879697118</v>
+        <v>6.727396402047772</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.320490492351333</v>
+        <v>-2.413778670623021</v>
       </c>
       <c r="G24" t="n">
-        <v>1.57305357470993</v>
+        <v>1.59441301418598</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8880757626017561</v>
       </c>
       <c r="E25" t="n">
-        <v>6.585356916541597</v>
+        <v>6.803235791350281</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.328055228248304</v>
+        <v>-2.419438056373658</v>
       </c>
       <c r="G25" t="n">
-        <v>1.623192379799842</v>
+        <v>1.639540142393671</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9159344621126972</v>
       </c>
       <c r="E26" t="n">
-        <v>6.60992578100598</v>
+        <v>6.806764742220238</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.336577754780587</v>
+        <v>-2.435826743464641</v>
       </c>
       <c r="G26" t="n">
-        <v>1.674735209945954</v>
+        <v>1.67336266527218</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.934210091395867</v>
       </c>
       <c r="E27" t="n">
-        <v>6.564167471130648</v>
+        <v>6.745478733713274</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.272610404700487</v>
+        <v>-2.34832072443505</v>
       </c>
       <c r="G27" t="n">
-        <v>1.631029421004798</v>
+        <v>1.629608081738264</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9432782278652202</v>
       </c>
       <c r="E28" t="n">
-        <v>6.470793508816849</v>
+        <v>6.62996619245838</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.236812487824746</v>
+        <v>-2.289899430728854</v>
       </c>
       <c r="G28" t="n">
-        <v>1.598717956482738</v>
+        <v>1.582763698669234</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9440052808784755</v>
       </c>
       <c r="E29" t="n">
-        <v>6.341909675126505</v>
+        <v>6.481348881044291</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.15485488619774</v>
+        <v>-2.205307708102352</v>
       </c>
       <c r="G29" t="n">
-        <v>1.557922528896867</v>
+        <v>1.535151194269009</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9367330134716195</v>
       </c>
       <c r="E30" t="n">
-        <v>6.189774430976309</v>
+        <v>6.310249854520664</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.123578339247935</v>
+        <v>-2.161588539998665</v>
       </c>
       <c r="G30" t="n">
-        <v>1.486831955283321</v>
+        <v>1.465681860350404</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9232945526542792</v>
       </c>
       <c r="E31" t="n">
-        <v>5.942352791279933</v>
+        <v>6.038835441358301</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.984652263563694</v>
+        <v>-1.988296904839065</v>
       </c>
       <c r="G31" t="n">
-        <v>1.409509839968546</v>
+        <v>1.385846036498911</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9049941812193593</v>
       </c>
       <c r="E32" t="n">
-        <v>5.71319764348625</v>
+        <v>5.788725377002742</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.87843351821052</v>
+        <v>-1.868487291383021</v>
       </c>
       <c r="G32" t="n">
-        <v>1.345936781678333</v>
+        <v>1.308147730614146</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8826399185735564</v>
       </c>
       <c r="E33" t="n">
-        <v>5.391623962985399</v>
+        <v>5.441690363195731</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.823458539370411</v>
+        <v>-1.804589985153819</v>
       </c>
       <c r="G33" t="n">
-        <v>1.273528754060258</v>
+        <v>1.231118382855932</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8571696739483762</v>
       </c>
       <c r="E34" t="n">
-        <v>5.117972868651668</v>
+        <v>5.146895470005568</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.742478403617734</v>
+        <v>-1.723093571129355</v>
       </c>
       <c r="G34" t="n">
-        <v>1.165758812863043</v>
+        <v>1.117113751919245</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8280294762159808</v>
       </c>
       <c r="E35" t="n">
-        <v>4.748674928392979</v>
+        <v>4.749602025655425</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.699274726776272</v>
+        <v>-1.675085200920123</v>
       </c>
       <c r="G35" t="n">
-        <v>1.089108803713063</v>
+        <v>1.044238240622144</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7958563840711423</v>
       </c>
       <c r="E36" t="n">
-        <v>4.306712395399444</v>
+        <v>4.290315838212854</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.636387153813385</v>
+        <v>-1.599478766447566</v>
       </c>
       <c r="G36" t="n">
-        <v>1.030536404171222</v>
+        <v>0.9803535265459135</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7610520709825361</v>
       </c>
       <c r="E37" t="n">
-        <v>3.963673816141414</v>
+        <v>3.928237923663572</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.601543879534713</v>
+        <v>-1.564907010467318</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9484371408232994</v>
+        <v>0.9003414125528356</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7246609359486677</v>
       </c>
       <c r="E38" t="n">
-        <v>3.641492564259741</v>
+        <v>3.591353759169829</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.514196049426813</v>
+        <v>-1.473884632720742</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8605675233766885</v>
+        <v>0.8080991699872514</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6886755346282211</v>
       </c>
       <c r="E39" t="n">
-        <v>3.239527431157577</v>
+        <v>3.169379694997691</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.491204352121974</v>
+        <v>-1.44966756152997</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7889354871854155</v>
+        <v>0.7422988746403975</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6529734654826483</v>
       </c>
       <c r="E40" t="n">
-        <v>2.857047080757996</v>
+        <v>2.766169512770579</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.484133858229091</v>
+        <v>-1.446388879700301</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7218681064459145</v>
+        <v>0.6720755855626885</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6180997711163686</v>
       </c>
       <c r="E41" t="n">
-        <v>2.51190718597303</v>
+        <v>2.41658458798706</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.457368450080934</v>
+        <v>-1.415304363083294</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6718253165224017</v>
+        <v>0.6205752539328514</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5833592498018322</v>
       </c>
       <c r="E42" t="n">
-        <v>2.15026842275859</v>
+        <v>2.044908304836087</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.424248726740085</v>
+        <v>-1.38470700538433</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6039945365090699</v>
+        <v>0.5548489374846985</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.548384188925065</v>
       </c>
       <c r="E43" t="n">
-        <v>1.903093904064258</v>
+        <v>1.804484754153013</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.391819210783927</v>
+        <v>-1.359726534919727</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5300345260373932</v>
+        <v>0.4803002438616554</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5132319656385088</v>
       </c>
       <c r="E44" t="n">
-        <v>1.670231941239913</v>
+        <v>1.584871310272656</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.390159407620515</v>
+        <v>-1.359543948701657</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4550954756722674</v>
+        <v>0.4097826132082633</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4772872889723919</v>
       </c>
       <c r="E45" t="n">
-        <v>1.451183570224103</v>
+        <v>1.365231108067236</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.320179304497048</v>
+        <v>-1.289041271229917</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4037682861457733</v>
+        <v>0.3545849106624907</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.441060332765477</v>
       </c>
       <c r="E46" t="n">
-        <v>1.228445698387964</v>
+        <v>1.142634897952014</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.25593571406116</v>
+        <v>-1.2271823197628</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3554679353895404</v>
+        <v>0.3149054626336217</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.404287045259757</v>
       </c>
       <c r="E47" t="n">
-        <v>1.097948495098288</v>
+        <v>1.015798863138484</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.210073518923822</v>
+        <v>-1.178084728321628</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2848165131108377</v>
+        <v>0.2407046272363859</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3674187119702283</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9084838134673241</v>
+        <v>0.842845642089964</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.134925911025124</v>
+        <v>-1.104258509475262</v>
       </c>
       <c r="G48" t="n">
-        <v>0.213285214143328</v>
+        <v>0.1779862613290387</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3313377876225619</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7488389240894018</v>
+        <v>0.6807421348445701</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.069138994840801</v>
+        <v>-1.042098920355976</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1693700806590388</v>
+        <v>0.1322436916449194</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.296467972913049</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6654914635782878</v>
+        <v>0.6005442865951788</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.003166344400165</v>
+        <v>-0.9832620856017567</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1425047222966787</v>
+        <v>0.1129682534854712</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2638343193216058</v>
       </c>
       <c r="E51" t="n">
-        <v>0.542031699779947</v>
+        <v>0.4807472652921048</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9801927483152203</v>
+        <v>-0.9636805007232154</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1195413573360229</v>
+        <v>0.1002297167367848</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2338905936921667</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3784627807326221</v>
+        <v>0.3323770748800593</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9670685768818152</v>
+        <v>-0.9610896652495545</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06952847377581485</v>
+        <v>0.04532005969021028</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2071461644336608</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3235452535904412</v>
+        <v>0.2704520146098476</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9562684446810106</v>
+        <v>-0.9358723049071962</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06423662149000195</v>
+        <v>0.04965018629290847</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1836812633252609</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1882315517895849</v>
+        <v>0.1566189517573819</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9106533705457166</v>
+        <v>-0.9002774364981024</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02323814543748293</v>
+        <v>0.009659082478021896</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1627664374165755</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1086318308062878</v>
+        <v>0.09931206358906647</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9119424922060618</v>
+        <v>-0.9110964569283627</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00932381640518485</v>
+        <v>-0.002242076098132604</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.14385095061769</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02433995882239341</v>
+        <v>0.01911264132055383</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9130687028873525</v>
+        <v>-0.9201769732391464</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.02609790990056583</v>
+        <v>-0.03741510738271777</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.125775705125466</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07814757420373697</v>
+        <v>-0.07879292204347026</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.93366238206089</v>
+        <v>-0.9484298294569331</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0665171469164462</v>
+        <v>-0.07652003843231206</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1077890152963062</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1247322441177521</v>
+        <v>-0.1192373433652914</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.926527353384034</v>
+        <v>-0.9465669778268737</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09454727942856885</v>
+        <v>-0.1028754145993708</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.08938313992318406</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2037637441982597</v>
+        <v>-0.194505363726769</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9395673147944495</v>
+        <v>-0.9558906800918984</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1151999843191552</v>
+        <v>-0.1179403516093397</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.07017493595725491</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2915042920769239</v>
+        <v>-0.2752006020184914</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9610810081443873</v>
+        <v>-0.9905568772194248</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1276221432244602</v>
+        <v>-0.1272333605014989</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.04988296975950827</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3787254136455589</v>
+        <v>-0.3541990476974516</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9433323685326008</v>
+        <v>-0.9722179804371504</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1630108151286636</v>
+        <v>-0.165384435963585</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.02844276937470182</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4979605101223286</v>
+        <v>-0.4775360380043309</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.965193920108346</v>
+        <v>-1.005983838627293</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1844001609680186</v>
+        <v>-0.1856263218635118</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.005693824285543137</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.546818063647502</v>
+        <v>-0.5265997880343947</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9792522718902432</v>
+        <v>-1.030093876517816</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2149723343610419</v>
+        <v>-0.220092618562633</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.01798310881936387</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.687988690598718</v>
+        <v>-0.6701125554381061</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.01464487884225</v>
+        <v>-1.070149515116676</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2603623237619898</v>
+        <v>-0.2680923316666975</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.04236764729372701</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8472951658655606</v>
+        <v>-0.835610434918585</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.069761519403275</v>
+        <v>-1.13471577947243</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3183397440759793</v>
+        <v>-0.3296789778258295</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.06712010830787883</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9523845524992011</v>
+        <v>-0.9447930582771679</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.095898106912473</v>
+        <v>-1.162121026393397</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3543060809977001</v>
+        <v>-0.3646521086820095</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.09092712048981852</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.025459177215146</v>
+        <v>-1.032079501639337</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.148061100592378</v>
+        <v>-1.220409315483843</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4014495276997769</v>
+        <v>-0.4201772072050125</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1115159479620118</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.105893128332733</v>
+        <v>-1.130066913997669</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.19579086941714</v>
+        <v>-1.282197436090501</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4341607930786479</v>
+        <v>-0.446285462370027</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.126187202580803</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.239252685394494</v>
+        <v>-1.288686329918064</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.2488927655029</v>
+        <v>-1.337960211500821</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.463292738975681</v>
+        <v>-0.4792044982729096</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1333176422133602</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.288687116927624</v>
+        <v>-1.345422636154907</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.322498621672284</v>
+        <v>-1.422955670031937</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4930920689801456</v>
+        <v>-0.5164709749888247</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1318387568352156</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.336580583741001</v>
+        <v>-1.404294886339356</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.346077428109368</v>
+        <v>-1.457090635706024</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5402827362558615</v>
+        <v>-0.5716088648079878</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1214187272220139</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.405257399032032</v>
+        <v>-1.480153163871322</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.395111271776128</v>
+        <v>-1.505001416729735</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5224538216688887</v>
+        <v>-0.560077600725339</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1022328200403484</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.423094183714611</v>
+        <v>-1.524364212950415</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.403847864908907</v>
+        <v>-1.510407385401842</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5437392822462378</v>
+        <v>-0.588487071845695</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.07554147648871543</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.461168132239753</v>
+        <v>-1.572338741748539</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.436659080501981</v>
+        <v>-1.544931133798891</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5502163709303901</v>
+        <v>-0.5945738037877648</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.04257736494679137</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.444805416464272</v>
+        <v>-1.567944080361868</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.433363871471538</v>
+        <v>-1.534522145349729</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5685804520186053</v>
+        <v>-0.6150864209765554</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.004922140497300596</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.362937533927181</v>
+        <v>-1.484031546986207</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.48522150544191</v>
+        <v>-1.599863614122724</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5490106722834738</v>
+        <v>-0.5975187935637184</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.03638711707398153</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.321897346367947</v>
+        <v>-1.434864698703698</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.497496493559373</v>
+        <v>-1.609638272866001</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5260709176096376</v>
+        <v>-0.572065330353165</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.08065736120452094</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.151918234449125</v>
+        <v>-1.262079110691597</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.453731678901168</v>
+        <v>-1.555577012125808</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4866716449843601</v>
+        <v>-0.5331665958084612</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1268455063265762</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.034553072688461</v>
+        <v>-1.141776042241024</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.441884823984699</v>
+        <v>-1.531041202062973</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4813656265264555</v>
+        <v>-0.5363036159172133</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1743071674252136</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8593663185068157</v>
+        <v>-0.9624936903057547</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.413549331763044</v>
+        <v>-1.49611293075175</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4681958085385326</v>
+        <v>-0.5237460913674765</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2217187359727029</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.7124945942982485</v>
+        <v>-0.8172613070120223</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.392777001419239</v>
+        <v>-1.462014954527013</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4385349922167425</v>
+        <v>-0.4916660076562472</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2679664191458371</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5219233772250103</v>
+        <v>-0.6107909227945258</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.392145032742036</v>
+        <v>-1.45437545272178</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3995591307350948</v>
+        <v>-0.445034117168593</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3115810261670022</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3189677777053783</v>
+        <v>-0.4046888590514138</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.323539048311464</v>
+        <v>-1.364360447212837</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3191771222485113</v>
+        <v>-0.3610476048942309</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3508008225331948</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1376549411036308</v>
+        <v>-0.214548923217412</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.312678316374489</v>
+        <v>-1.339082487134308</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2983670154457949</v>
+        <v>-0.3391482768595744</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3851446249785963</v>
       </c>
       <c r="E85" t="n">
-        <v>0.05093615991501113</v>
+        <v>-0.0219047229614208</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.200333488601213</v>
+        <v>-1.216320013806704</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2620418021644176</v>
+        <v>-0.3105027028710232</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.4136493996509825</v>
       </c>
       <c r="E86" t="n">
-        <v>0.299684697730644</v>
+        <v>0.2407597179056315</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.107756766972353</v>
+        <v>-1.112183695751011</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1952829291726915</v>
+        <v>-0.2443372350880275</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.4344041636013209</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5214828801513666</v>
+        <v>0.4737633424508936</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.991620914145424</v>
+        <v>-0.9828079810852615</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1378406753599443</v>
+        <v>-0.1820847788405853</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.4461526859250787</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6949885819114626</v>
+        <v>0.6468283188570255</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.846024932434671</v>
+        <v>-0.8335280076211042</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1118001030171457</v>
+        <v>-0.1574623977260786</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.447824600734514</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8664291705844123</v>
+        <v>0.8300000720410291</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7273785191092678</v>
+        <v>-0.7156662428276693</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.06479359597862194</v>
+        <v>-0.1021954383389689</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.438838511735733</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9991142604526964</v>
+        <v>0.9671443580799581</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5622465990744913</v>
+        <v>-0.5350900471746906</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04626581690179154</v>
+        <v>-0.08380932098305555</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.4185644216250309</v>
       </c>
       <c r="E91" t="n">
-        <v>1.113439991290129</v>
+        <v>1.086722590725171</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3672429441556704</v>
+        <v>-0.336403187512026</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.06564986238060951</v>
+        <v>-0.102593665176658</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.3862617638353396</v>
       </c>
       <c r="E92" t="n">
-        <v>1.171121496009314</v>
+        <v>1.147852771339126</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2254852080722091</v>
+        <v>-0.1986277198054555</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02954186373797173</v>
+        <v>-0.06437490689235595</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.3422580258441773</v>
       </c>
       <c r="E93" t="n">
-        <v>1.211850814792091</v>
+        <v>1.182841642386519</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1241939295782673</v>
+        <v>-0.0981187288148001</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03054293989911897</v>
+        <v>-0.06245145552612651</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2893623122416254</v>
       </c>
       <c r="E94" t="n">
-        <v>1.185810242449292</v>
+        <v>1.1661916681214</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01892848108336165</v>
+        <v>0.05255267755258694</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.001656540985008748</v>
+        <v>-0.02718713113250591</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2321247462502648</v>
       </c>
       <c r="E95" t="n">
-        <v>1.187080475880182</v>
+        <v>1.178106992869647</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09585551759869015</v>
+        <v>0.1321571205932479</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.03758824948606085</v>
+        <v>-0.0610490044890476</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.176100080357009</v>
       </c>
       <c r="E96" t="n">
-        <v>1.106888923707276</v>
+        <v>1.098977903603618</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1701523681623252</v>
+        <v>0.2106991007270309</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07257082445696864</v>
+        <v>-0.09007549110495358</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1267648838768027</v>
       </c>
       <c r="E97" t="n">
-        <v>1.051176516908838</v>
+        <v>1.048403095217106</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2172659085010974</v>
+        <v>0.258094390488516</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04043092801912989</v>
+        <v>-0.0543987737015522</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.08821485904140819</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9404127913429084</v>
+        <v>0.9322829825813904</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2006804690199521</v>
+        <v>0.2394847624173779</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09876565067365468</v>
+        <v>-0.1121920337783495</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.06248183990107799</v>
       </c>
       <c r="E99" t="n">
-        <v>0.896847090103548</v>
+        <v>0.8980952872667395</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1929787934594278</v>
+        <v>0.2217534370159257</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.08839129064516185</v>
+        <v>-0.09900017952272848</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.04653775731400219</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8428424940517215</v>
+        <v>0.8425985210879199</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1825241584557486</v>
+        <v>0.2130648514663459</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09049732822946217</v>
+        <v>-0.101033812227449</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.03683496703634726</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7811661288026753</v>
+        <v>0.7860912346332252</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1682053065092763</v>
+        <v>0.1918738320362747</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.07948863849508515</v>
+        <v>-0.08756178256823638</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.02395362324153746</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7646105956848347</v>
+        <v>0.7732535346798968</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1474786227199888</v>
+        <v>0.1632125178565105</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06638650332937823</v>
+        <v>-0.07116207734340452</v>
       </c>
     </row>
   </sheetData>
